--- a/SpeedData.xlsx
+++ b/SpeedData.xlsx
@@ -1,40 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Paking\parking\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mine\Automation\立项\Parking\parking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDF5F5D3-A23A-41BF-A271-AC6E8C67F9BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFBCE77E-EEA1-4DB2-B41C-F6F58229EEA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="14220" xr2:uid="{EF19925B-1A47-4DCD-9511-2CE572AE3BB6}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{EF19925B-1A47-4DCD-9511-2CE572AE3BB6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="13">
   <si>
     <t>测试距离(cm)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -77,6 +69,14 @@
   </si>
   <si>
     <t>车长(cm)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测量直径平均值（cm)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -447,24 +447,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDAA50C8-DD8F-41B8-9909-D33982CD54B7}">
-  <dimension ref="A1:L34"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:L28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.1640625" customWidth="1"/>
+    <col min="1" max="1" width="10.109375" customWidth="1"/>
     <col min="2" max="2" width="12.33203125" customWidth="1"/>
-    <col min="3" max="3" width="10.5" customWidth="1"/>
-    <col min="4" max="4" width="12.4140625" customWidth="1"/>
-    <col min="8" max="8" width="12.25" customWidth="1"/>
-    <col min="9" max="9" width="11.25" customWidth="1"/>
-    <col min="10" max="10" width="13.58203125" customWidth="1"/>
+    <col min="3" max="3" width="10.44140625" customWidth="1"/>
+    <col min="4" max="4" width="12.44140625" customWidth="1"/>
+    <col min="8" max="8" width="12.21875" customWidth="1"/>
+    <col min="9" max="9" width="15.109375" customWidth="1"/>
+    <col min="10" max="10" width="13.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -480,23 +480,8 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J1" t="s">
-        <v>6</v>
-      </c>
-      <c r="L1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>25</v>
       </c>
@@ -514,20 +499,8 @@
         <f>AVERAGE(D2:D4)</f>
         <v>8.4562392761357259</v>
       </c>
-      <c r="G2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2">
-        <v>70</v>
-      </c>
-      <c r="I2">
-        <v>54</v>
-      </c>
-      <c r="L2">
-        <v>19.5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>25</v>
       </c>
@@ -542,7 +515,7 @@
         <v>8.4878048780487809</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>25</v>
       </c>
@@ -557,7 +530,7 @@
         <v>8.4425036390101891</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>50</v>
       </c>
@@ -576,7 +549,7 @@
         <v>16.709803461899472</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>50</v>
       </c>
@@ -591,7 +564,7 @@
         <v>16.618911174785101</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>50</v>
       </c>
@@ -606,7 +579,7 @@
         <v>16.682646212847555</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>75</v>
       </c>
@@ -625,7 +598,7 @@
         <v>25.501364060421135</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>75</v>
       </c>
@@ -640,7 +613,7 @@
         <v>25.625920471281297</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>75</v>
       </c>
@@ -655,7 +628,7 @@
         <v>25.327510917030569</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>100</v>
       </c>
@@ -674,7 +647,7 @@
         <v>34.099404644941323</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>100</v>
       </c>
@@ -689,7 +662,7 @@
         <v>35.437881873727086</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>100</v>
       </c>
@@ -704,7 +677,7 @@
         <v>33.590733590733592</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>110</v>
       </c>
@@ -723,7 +696,7 @@
         <v>36.916807033196406</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>110</v>
       </c>
@@ -738,7 +711,7 @@
         <v>36.786469344608875</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>110</v>
       </c>
@@ -753,7 +726,7 @@
         <v>37.021276595744681</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>120</v>
       </c>
@@ -772,7 +745,7 @@
         <v>39.526659917320508</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>120</v>
       </c>
@@ -787,7 +760,7 @@
         <v>39.635535307517088</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>120</v>
       </c>
@@ -802,7 +775,7 @@
         <v>40.277777777777779</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>125</v>
       </c>
@@ -821,7 +794,7 @@
         <v>41.567581894852985</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>125</v>
       </c>
@@ -836,7 +809,7 @@
         <v>41.232227488151658</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>125</v>
       </c>
@@ -851,7 +824,7 @@
         <v>42.335766423357661</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>130</v>
       </c>
@@ -870,7 +843,7 @@
         <v>44.251551369466625</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>130</v>
       </c>
@@ -885,7 +858,7 @@
         <v>44.050632911392405</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>130</v>
       </c>
@@ -900,7 +873,7 @@
         <v>43.391521197007485</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>150</v>
       </c>
@@ -919,7 +892,7 @@
         <v>51.143641251897726</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>150</v>
       </c>
@@ -934,7 +907,7 @@
         <v>50.877192982456144</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>150</v>
       </c>
@@ -949,7 +922,7 @@
         <v>50.144092219020173</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>175</v>
       </c>
@@ -968,7 +941,7 @@
         <v>62.827289885569257</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>175</v>
       </c>
@@ -983,7 +956,7 @@
         <v>63.04347826086957</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>175</v>
       </c>
@@ -998,7 +971,7 @@
         <v>63.736263736263737</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>200</v>
       </c>
@@ -1017,7 +990,7 @@
         <v>71.449740574195786</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>200</v>
       </c>
@@ -1032,7 +1005,7 @@
         <v>71.020408163265301</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>200</v>
       </c>
@@ -1055,4 +1028,540 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C16E9E1A-8430-42AC-9448-81A79640B4A2}">
+  <dimension ref="A1:F57"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="13.21875" customWidth="1"/>
+    <col min="4" max="4" width="21.109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" customWidth="1"/>
+    <col min="6" max="6" width="10.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2">
+        <v>30</v>
+      </c>
+      <c r="C2">
+        <v>126.5</v>
+      </c>
+      <c r="D2" s="1">
+        <f>AVERAGE(C2:C4)</f>
+        <v>128.66666666666666</v>
+      </c>
+      <c r="F2">
+        <v>19.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3">
+        <v>129.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>35</v>
+      </c>
+      <c r="C5">
+        <v>108</v>
+      </c>
+      <c r="D5" s="1">
+        <f>AVERAGE(C5:C7)</f>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>40</v>
+      </c>
+      <c r="C8">
+        <v>91</v>
+      </c>
+      <c r="D8" s="1">
+        <f>AVERAGE(C8:C10)</f>
+        <v>92.333333333333329</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>45</v>
+      </c>
+      <c r="C11">
+        <v>83.5</v>
+      </c>
+      <c r="D11" s="1">
+        <f>AVERAGE(C11:C13)</f>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12">
+        <v>81.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14">
+        <v>50</v>
+      </c>
+      <c r="C14">
+        <v>71</v>
+      </c>
+      <c r="D14" s="1">
+        <f>AVERAGE(C14:C16)</f>
+        <v>72.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16">
+        <v>73.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17">
+        <v>60</v>
+      </c>
+      <c r="C17">
+        <v>61</v>
+      </c>
+      <c r="D17" s="1">
+        <f>AVERAGE(C17:C19)</f>
+        <v>61.333333333333336</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20">
+        <v>70</v>
+      </c>
+      <c r="C20">
+        <v>54.5</v>
+      </c>
+      <c r="D20" s="1">
+        <f>AVERAGE(C20:C22)</f>
+        <v>53.833333333333336</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23">
+        <v>80</v>
+      </c>
+      <c r="C23">
+        <v>49</v>
+      </c>
+      <c r="D23" s="1">
+        <f>AVERAGE(C23:C25)</f>
+        <v>50.666666666666664</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26">
+        <v>80</v>
+      </c>
+      <c r="C26">
+        <v>70</v>
+      </c>
+      <c r="D26" s="1">
+        <f>AVERAGE(C26:C28)</f>
+        <v>69.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>12</v>
+      </c>
+      <c r="B27">
+        <v>80</v>
+      </c>
+      <c r="C27">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>12</v>
+      </c>
+      <c r="B28">
+        <v>80</v>
+      </c>
+      <c r="C28">
+        <v>69.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>12</v>
+      </c>
+      <c r="B29">
+        <v>70</v>
+      </c>
+      <c r="C29">
+        <v>68.5</v>
+      </c>
+      <c r="D29" s="1">
+        <f>AVERAGE(C29:C31)</f>
+        <v>68.666666666666671</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>12</v>
+      </c>
+      <c r="B30">
+        <v>70</v>
+      </c>
+      <c r="C30">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>12</v>
+      </c>
+      <c r="B31">
+        <v>70</v>
+      </c>
+      <c r="C31">
+        <v>69.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>12</v>
+      </c>
+      <c r="B32">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>12</v>
+      </c>
+      <c r="B33">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>12</v>
+      </c>
+      <c r="B34">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>12</v>
+      </c>
+      <c r="B35">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>12</v>
+      </c>
+      <c r="B36">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>12</v>
+      </c>
+      <c r="B37">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>12</v>
+      </c>
+      <c r="B38">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>12</v>
+      </c>
+      <c r="B39">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>12</v>
+      </c>
+      <c r="B40">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>12</v>
+      </c>
+      <c r="B41">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>12</v>
+      </c>
+      <c r="B42">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>12</v>
+      </c>
+      <c r="B43">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:D25">
+    <sortCondition ref="B2:B25"/>
+  </sortState>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/SpeedData.xlsx
+++ b/SpeedData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mine\Automation\立项\Parking\parking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFBCE77E-EEA1-4DB2-B41C-F6F58229EEA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{562DF4E1-65B9-48F2-AA1A-7FB5B31B745F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{EF19925B-1A47-4DCD-9511-2CE572AE3BB6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{EF19925B-1A47-4DCD-9511-2CE572AE3BB6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="11">
   <si>
     <t>测试距离(cm)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -52,10 +52,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>平均半径(cm)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>方向(L\R)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -65,10 +61,6 @@
   </si>
   <si>
     <t>测量直径(cm)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>车长(cm)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -492,7 +484,7 @@
         <v>20.62</v>
       </c>
       <c r="D2" s="1">
-        <f>B2/C2</f>
+        <f t="shared" ref="D2:D34" si="0">B2/C2</f>
         <v>8.4384093113482059</v>
       </c>
       <c r="E2" s="1">
@@ -511,7 +503,7 @@
         <v>20.5</v>
       </c>
       <c r="D3" s="1">
-        <f>B3/C3</f>
+        <f t="shared" si="0"/>
         <v>8.4878048780487809</v>
       </c>
     </row>
@@ -526,7 +518,7 @@
         <v>20.61</v>
       </c>
       <c r="D4" s="1">
-        <f>B4/C4</f>
+        <f t="shared" si="0"/>
         <v>8.4425036390101891</v>
       </c>
     </row>
@@ -541,7 +533,7 @@
         <v>10.34</v>
       </c>
       <c r="D5" s="1">
-        <f>B5/C5</f>
+        <f t="shared" si="0"/>
         <v>16.827852998065765</v>
       </c>
       <c r="E5" s="1">
@@ -560,7 +552,7 @@
         <v>10.47</v>
       </c>
       <c r="D6" s="1">
-        <f>B6/C6</f>
+        <f t="shared" si="0"/>
         <v>16.618911174785101</v>
       </c>
     </row>
@@ -575,7 +567,7 @@
         <v>10.43</v>
       </c>
       <c r="D7" s="1">
-        <f>B7/C7</f>
+        <f t="shared" si="0"/>
         <v>16.682646212847555</v>
       </c>
     </row>
@@ -590,7 +582,7 @@
         <v>6.81</v>
       </c>
       <c r="D8" s="1">
-        <f>B8/C8</f>
+        <f t="shared" si="0"/>
         <v>25.550660792951543</v>
       </c>
       <c r="E8" s="1">
@@ -609,7 +601,7 @@
         <v>6.79</v>
       </c>
       <c r="D9" s="1">
-        <f>B9/C9</f>
+        <f t="shared" si="0"/>
         <v>25.625920471281297</v>
       </c>
     </row>
@@ -624,7 +616,7 @@
         <v>6.87</v>
       </c>
       <c r="D10" s="1">
-        <f>B10/C10</f>
+        <f t="shared" si="0"/>
         <v>25.327510917030569</v>
       </c>
     </row>
@@ -639,7 +631,7 @@
         <v>5.23</v>
       </c>
       <c r="D11" s="1">
-        <f>B11/C11</f>
+        <f t="shared" si="0"/>
         <v>33.269598470363285</v>
       </c>
       <c r="E11" s="1">
@@ -658,7 +650,7 @@
         <v>4.91</v>
       </c>
       <c r="D12" s="1">
-        <f>B12/C12</f>
+        <f t="shared" si="0"/>
         <v>35.437881873727086</v>
       </c>
     </row>
@@ -673,7 +665,7 @@
         <v>5.18</v>
       </c>
       <c r="D13" s="1">
-        <f>B13/C13</f>
+        <f t="shared" si="0"/>
         <v>33.590733590733592</v>
       </c>
     </row>
@@ -688,7 +680,7 @@
         <v>4.71</v>
       </c>
       <c r="D14" s="1">
-        <f>B14/C14</f>
+        <f t="shared" si="0"/>
         <v>36.942675159235669</v>
       </c>
       <c r="E14" s="1">
@@ -707,7 +699,7 @@
         <v>4.7300000000000004</v>
       </c>
       <c r="D15" s="1">
-        <f>B15/C15</f>
+        <f t="shared" si="0"/>
         <v>36.786469344608875</v>
       </c>
     </row>
@@ -722,7 +714,7 @@
         <v>4.7</v>
       </c>
       <c r="D16" s="1">
-        <f>B16/C16</f>
+        <f t="shared" si="0"/>
         <v>37.021276595744681</v>
       </c>
     </row>
@@ -737,7 +729,7 @@
         <v>4.5</v>
       </c>
       <c r="D17" s="1">
-        <f>B17/C17</f>
+        <f t="shared" si="0"/>
         <v>38.666666666666664</v>
       </c>
       <c r="E17" s="1">
@@ -756,7 +748,7 @@
         <v>4.3899999999999997</v>
       </c>
       <c r="D18" s="1">
-        <f>B18/C18</f>
+        <f t="shared" si="0"/>
         <v>39.635535307517088</v>
       </c>
     </row>
@@ -771,7 +763,7 @@
         <v>4.32</v>
       </c>
       <c r="D19" s="1">
-        <f>B19/C19</f>
+        <f t="shared" si="0"/>
         <v>40.277777777777779</v>
       </c>
     </row>
@@ -786,7 +778,7 @@
         <v>4.2300000000000004</v>
       </c>
       <c r="D20" s="1">
-        <f>B20/C20</f>
+        <f t="shared" si="0"/>
         <v>41.134751773049643</v>
       </c>
       <c r="E20" s="1">
@@ -805,7 +797,7 @@
         <v>4.22</v>
       </c>
       <c r="D21" s="1">
-        <f>B21/C21</f>
+        <f t="shared" si="0"/>
         <v>41.232227488151658</v>
       </c>
     </row>
@@ -820,7 +812,7 @@
         <v>4.1100000000000003</v>
       </c>
       <c r="D22" s="1">
-        <f>B22/C22</f>
+        <f t="shared" si="0"/>
         <v>42.335766423357661</v>
       </c>
     </row>
@@ -835,7 +827,7 @@
         <v>3.84</v>
       </c>
       <c r="D23" s="1">
-        <f>B23/C23</f>
+        <f t="shared" si="0"/>
         <v>45.3125</v>
       </c>
       <c r="E23" s="1">
@@ -854,7 +846,7 @@
         <v>3.95</v>
       </c>
       <c r="D24" s="1">
-        <f>B24/C24</f>
+        <f t="shared" si="0"/>
         <v>44.050632911392405</v>
       </c>
     </row>
@@ -869,7 +861,7 @@
         <v>4.01</v>
       </c>
       <c r="D25" s="1">
-        <f>B25/C25</f>
+        <f t="shared" si="0"/>
         <v>43.391521197007485</v>
       </c>
     </row>
@@ -884,7 +876,7 @@
         <v>3.32</v>
       </c>
       <c r="D26" s="1">
-        <f>B26/C26</f>
+        <f t="shared" si="0"/>
         <v>52.409638554216869</v>
       </c>
       <c r="E26" s="1">
@@ -903,7 +895,7 @@
         <v>3.42</v>
       </c>
       <c r="D27" s="1">
-        <f>B27/C27</f>
+        <f t="shared" si="0"/>
         <v>50.877192982456144</v>
       </c>
     </row>
@@ -918,7 +910,7 @@
         <v>3.47</v>
       </c>
       <c r="D28" s="1">
-        <f>B28/C28</f>
+        <f t="shared" si="0"/>
         <v>50.144092219020173</v>
       </c>
     </row>
@@ -933,7 +925,7 @@
         <v>2.82</v>
       </c>
       <c r="D29" s="1">
-        <f>B29/C29</f>
+        <f t="shared" si="0"/>
         <v>61.702127659574472</v>
       </c>
       <c r="E29" s="1">
@@ -952,7 +944,7 @@
         <v>2.76</v>
       </c>
       <c r="D30" s="1">
-        <f>B30/C30</f>
+        <f t="shared" si="0"/>
         <v>63.04347826086957</v>
       </c>
     </row>
@@ -967,7 +959,7 @@
         <v>2.73</v>
       </c>
       <c r="D31" s="1">
-        <f>B31/C31</f>
+        <f t="shared" si="0"/>
         <v>63.736263736263737</v>
       </c>
     </row>
@@ -982,7 +974,7 @@
         <v>2.5</v>
       </c>
       <c r="D32" s="1">
-        <f>B32/C32</f>
+        <f t="shared" si="0"/>
         <v>69.599999999999994</v>
       </c>
       <c r="E32" s="1">
@@ -1001,7 +993,7 @@
         <v>2.4500000000000002</v>
       </c>
       <c r="D33" s="1">
-        <f>B33/C33</f>
+        <f t="shared" si="0"/>
         <v>71.020408163265301</v>
       </c>
     </row>
@@ -1016,7 +1008,7 @@
         <v>2.36</v>
       </c>
       <c r="D34" s="1">
-        <f>B34/C34</f>
+        <f t="shared" si="0"/>
         <v>73.728813559322035</v>
       </c>
     </row>
@@ -1032,10 +1024,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C16E9E1A-8430-42AC-9448-81A79640B4A2}">
-  <dimension ref="A1:F57"/>
+  <dimension ref="A1:D55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1046,29 +1038,23 @@
     <col min="6" max="6" width="10.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
         <v>5</v>
       </c>
       <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2">
         <v>30</v>
@@ -1080,238 +1066,283 @@
         <f>AVERAGE(C2:C4)</f>
         <v>128.66666666666666</v>
       </c>
-      <c r="F2">
-        <v>19.5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="B3">
+        <v>30</v>
       </c>
       <c r="C3">
         <v>129.5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>30</v>
       </c>
       <c r="C4">
         <v>130</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C5">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D5" s="1">
         <f>AVERAGE(C5:C7)</f>
+        <v>117</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>32</v>
+      </c>
+      <c r="C6">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>32</v>
+      </c>
+      <c r="C7">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>35</v>
+      </c>
+      <c r="C8">
         <v>108</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8">
-        <v>40</v>
-      </c>
-      <c r="C8">
-        <v>91</v>
       </c>
       <c r="D8" s="1">
         <f>AVERAGE(C8:C10)</f>
-        <v>92.333333333333329</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>35</v>
       </c>
       <c r="C9">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>35</v>
       </c>
       <c r="C10">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B11">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C11">
-        <v>83.5</v>
+        <v>91</v>
       </c>
       <c r="D11" s="1">
         <f>AVERAGE(C11:C13)</f>
-        <v>82</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>92.333333333333329</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="B12">
+        <v>40</v>
       </c>
       <c r="C12">
-        <v>81.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="B13">
+        <v>40</v>
       </c>
       <c r="C13">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B14">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C14">
-        <v>71</v>
+        <v>83.5</v>
       </c>
       <c r="D14" s="1">
         <f>AVERAGE(C14:C16)</f>
-        <v>72.5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="B15">
+        <v>45</v>
       </c>
       <c r="C15">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+        <v>81.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="B16">
+        <v>45</v>
       </c>
       <c r="C16">
-        <v>73.5</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B17">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C17">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="D17" s="1">
         <f>AVERAGE(C17:C19)</f>
-        <v>61.333333333333336</v>
+        <v>72.5</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="B18">
+        <v>50</v>
       </c>
       <c r="C18">
-        <v>63</v>
+        <v>73</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="B19">
+        <v>50</v>
       </c>
       <c r="C19">
-        <v>60</v>
+        <v>73.5</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B20">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C20">
-        <v>54.5</v>
+        <v>61</v>
       </c>
       <c r="D20" s="1">
         <f>AVERAGE(C20:C22)</f>
-        <v>53.833333333333336</v>
+        <v>61.333333333333336</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="B21">
+        <v>60</v>
       </c>
       <c r="C21">
-        <v>56</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="B22">
+        <v>60</v>
       </c>
       <c r="C22">
-        <v>51</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B23">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="C23">
-        <v>49</v>
+        <v>54.5</v>
       </c>
       <c r="D23" s="1">
         <f>AVERAGE(C23:C25)</f>
-        <v>50.666666666666664</v>
+        <v>53.833333333333336</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="B24">
+        <v>70</v>
       </c>
       <c r="C24">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="B25">
+        <v>70</v>
       </c>
       <c r="C25">
         <v>51</v>
@@ -1319,249 +1350,379 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B26">
         <v>80</v>
       </c>
       <c r="C26">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="D26" s="1">
         <f>AVERAGE(C26:C28)</f>
-        <v>69.5</v>
+        <v>50.666666666666664</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B27">
         <v>80</v>
       </c>
       <c r="C27">
-        <v>69</v>
+        <v>52</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B28">
         <v>80</v>
       </c>
       <c r="C28">
-        <v>69.5</v>
+        <v>51</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B29">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="C29">
-        <v>68.5</v>
+        <v>119</v>
       </c>
       <c r="D29" s="1">
         <f>AVERAGE(C29:C31)</f>
-        <v>68.666666666666671</v>
+        <v>119</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B30">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="C30">
-        <v>68</v>
+        <v>118.5</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B31">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="C31">
-        <v>69.5</v>
+        <v>119.5</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B32">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="C32">
+        <v>117.5</v>
+      </c>
+      <c r="D32" s="1">
+        <f>AVERAGE(C32:C34)</f>
+        <v>116.16666666666667</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B33">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="C33">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B34">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="C34">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B35">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="C35">
+        <v>104.5</v>
+      </c>
+      <c r="D35" s="1">
+        <f>AVERAGE(C35:C37)</f>
+        <v>104.33333333333333</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B36">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="C36">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B37">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="C37">
+        <v>104.5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B38">
         <v>40</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C38">
+        <v>91</v>
+      </c>
+      <c r="D38" s="1">
+        <f>AVERAGE(C38:C40)</f>
+        <v>91.666666666666671</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B39">
         <v>40</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C39">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B40">
         <v>40</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C40">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B41">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="C41">
+        <v>83</v>
+      </c>
+      <c r="D41" s="1">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B42">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="C42">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B43">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="C43">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="B44">
+        <v>50</v>
+      </c>
+      <c r="C44">
+        <v>77.5</v>
+      </c>
+      <c r="D44" s="1">
+        <f>AVERAGE(C44:C46)</f>
+        <v>77.5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="B45">
+        <v>50</v>
+      </c>
+      <c r="C45">
+        <v>77.5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="B46">
+        <v>50</v>
+      </c>
+      <c r="C46">
+        <v>77.5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="B47">
+        <v>60</v>
+      </c>
+      <c r="C47">
+        <v>68</v>
+      </c>
+      <c r="D47" s="1">
+        <f>AVERAGE(C47:C49)</f>
+        <v>69.666666666666671</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="B48">
+        <v>60</v>
+      </c>
+      <c r="C48">
+        <v>70.5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="B49">
+        <v>60</v>
+      </c>
+      <c r="C49">
+        <v>70.5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="B50">
+        <v>70</v>
+      </c>
+      <c r="C50">
+        <v>69</v>
+      </c>
+      <c r="D50" s="1">
+        <f>AVERAGE(C50:C52)</f>
+        <v>69.166666666666671</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="B51">
+        <v>70</v>
+      </c>
+      <c r="C51">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="B52">
+        <v>70</v>
+      </c>
+      <c r="C52">
+        <v>69.5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="B53">
+        <v>80</v>
+      </c>
+      <c r="C53">
+        <v>69</v>
+      </c>
+      <c r="D53" s="1">
+        <f>AVERAGE(C53:C55)</f>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="B54">
+        <v>80</v>
+      </c>
+      <c r="C54">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="B55">
+        <v>80</v>
+      </c>
+      <c r="C55">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:D25">
-    <sortCondition ref="B2:B25"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B29:D55">
+    <sortCondition ref="B29:B55"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/SpeedData.xlsx
+++ b/SpeedData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Paking\parking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDF5F5D3-A23A-41BF-A271-AC6E8C67F9BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{396ADDB8-137F-4F61-839C-78690F41FD2D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="14220" xr2:uid="{EF19925B-1A47-4DCD-9511-2CE572AE3BB6}"/>
   </bookViews>
@@ -450,7 +450,7 @@
   <dimension ref="A1:L34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -507,7 +507,7 @@
         <v>20.62</v>
       </c>
       <c r="D2" s="1">
-        <f>B2/C2</f>
+        <f t="shared" ref="D2:D34" si="0">B2/C2</f>
         <v>8.4384093113482059</v>
       </c>
       <c r="E2" s="1">
@@ -538,7 +538,7 @@
         <v>20.5</v>
       </c>
       <c r="D3" s="1">
-        <f>B3/C3</f>
+        <f t="shared" si="0"/>
         <v>8.4878048780487809</v>
       </c>
     </row>
@@ -553,7 +553,7 @@
         <v>20.61</v>
       </c>
       <c r="D4" s="1">
-        <f>B4/C4</f>
+        <f t="shared" si="0"/>
         <v>8.4425036390101891</v>
       </c>
     </row>
@@ -568,7 +568,7 @@
         <v>10.34</v>
       </c>
       <c r="D5" s="1">
-        <f>B5/C5</f>
+        <f t="shared" si="0"/>
         <v>16.827852998065765</v>
       </c>
       <c r="E5" s="1">
@@ -587,7 +587,7 @@
         <v>10.47</v>
       </c>
       <c r="D6" s="1">
-        <f>B6/C6</f>
+        <f t="shared" si="0"/>
         <v>16.618911174785101</v>
       </c>
     </row>
@@ -602,7 +602,7 @@
         <v>10.43</v>
       </c>
       <c r="D7" s="1">
-        <f>B7/C7</f>
+        <f t="shared" si="0"/>
         <v>16.682646212847555</v>
       </c>
     </row>
@@ -617,7 +617,7 @@
         <v>6.81</v>
       </c>
       <c r="D8" s="1">
-        <f>B8/C8</f>
+        <f t="shared" si="0"/>
         <v>25.550660792951543</v>
       </c>
       <c r="E8" s="1">
@@ -636,7 +636,7 @@
         <v>6.79</v>
       </c>
       <c r="D9" s="1">
-        <f>B9/C9</f>
+        <f t="shared" si="0"/>
         <v>25.625920471281297</v>
       </c>
     </row>
@@ -651,7 +651,7 @@
         <v>6.87</v>
       </c>
       <c r="D10" s="1">
-        <f>B10/C10</f>
+        <f t="shared" si="0"/>
         <v>25.327510917030569</v>
       </c>
     </row>
@@ -666,7 +666,7 @@
         <v>5.23</v>
       </c>
       <c r="D11" s="1">
-        <f>B11/C11</f>
+        <f t="shared" si="0"/>
         <v>33.269598470363285</v>
       </c>
       <c r="E11" s="1">
@@ -685,7 +685,7 @@
         <v>4.91</v>
       </c>
       <c r="D12" s="1">
-        <f>B12/C12</f>
+        <f t="shared" si="0"/>
         <v>35.437881873727086</v>
       </c>
     </row>
@@ -700,7 +700,7 @@
         <v>5.18</v>
       </c>
       <c r="D13" s="1">
-        <f>B13/C13</f>
+        <f t="shared" si="0"/>
         <v>33.590733590733592</v>
       </c>
     </row>
@@ -715,7 +715,7 @@
         <v>4.71</v>
       </c>
       <c r="D14" s="1">
-        <f>B14/C14</f>
+        <f t="shared" si="0"/>
         <v>36.942675159235669</v>
       </c>
       <c r="E14" s="1">
@@ -734,7 +734,7 @@
         <v>4.7300000000000004</v>
       </c>
       <c r="D15" s="1">
-        <f>B15/C15</f>
+        <f t="shared" si="0"/>
         <v>36.786469344608875</v>
       </c>
     </row>
@@ -749,7 +749,7 @@
         <v>4.7</v>
       </c>
       <c r="D16" s="1">
-        <f>B16/C16</f>
+        <f t="shared" si="0"/>
         <v>37.021276595744681</v>
       </c>
     </row>
@@ -764,7 +764,7 @@
         <v>4.5</v>
       </c>
       <c r="D17" s="1">
-        <f>B17/C17</f>
+        <f t="shared" si="0"/>
         <v>38.666666666666664</v>
       </c>
       <c r="E17" s="1">
@@ -783,7 +783,7 @@
         <v>4.3899999999999997</v>
       </c>
       <c r="D18" s="1">
-        <f>B18/C18</f>
+        <f t="shared" si="0"/>
         <v>39.635535307517088</v>
       </c>
     </row>
@@ -798,7 +798,7 @@
         <v>4.32</v>
       </c>
       <c r="D19" s="1">
-        <f>B19/C19</f>
+        <f t="shared" si="0"/>
         <v>40.277777777777779</v>
       </c>
     </row>
@@ -813,7 +813,7 @@
         <v>4.2300000000000004</v>
       </c>
       <c r="D20" s="1">
-        <f>B20/C20</f>
+        <f t="shared" si="0"/>
         <v>41.134751773049643</v>
       </c>
       <c r="E20" s="1">
@@ -832,7 +832,7 @@
         <v>4.22</v>
       </c>
       <c r="D21" s="1">
-        <f>B21/C21</f>
+        <f t="shared" si="0"/>
         <v>41.232227488151658</v>
       </c>
     </row>
@@ -847,7 +847,7 @@
         <v>4.1100000000000003</v>
       </c>
       <c r="D22" s="1">
-        <f>B22/C22</f>
+        <f t="shared" si="0"/>
         <v>42.335766423357661</v>
       </c>
     </row>
@@ -862,7 +862,7 @@
         <v>3.84</v>
       </c>
       <c r="D23" s="1">
-        <f>B23/C23</f>
+        <f t="shared" si="0"/>
         <v>45.3125</v>
       </c>
       <c r="E23" s="1">
@@ -881,7 +881,7 @@
         <v>3.95</v>
       </c>
       <c r="D24" s="1">
-        <f>B24/C24</f>
+        <f t="shared" si="0"/>
         <v>44.050632911392405</v>
       </c>
     </row>
@@ -896,7 +896,7 @@
         <v>4.01</v>
       </c>
       <c r="D25" s="1">
-        <f>B25/C25</f>
+        <f t="shared" si="0"/>
         <v>43.391521197007485</v>
       </c>
     </row>
@@ -911,7 +911,7 @@
         <v>3.32</v>
       </c>
       <c r="D26" s="1">
-        <f>B26/C26</f>
+        <f t="shared" si="0"/>
         <v>52.409638554216869</v>
       </c>
       <c r="E26" s="1">
@@ -930,7 +930,7 @@
         <v>3.42</v>
       </c>
       <c r="D27" s="1">
-        <f>B27/C27</f>
+        <f t="shared" si="0"/>
         <v>50.877192982456144</v>
       </c>
     </row>
@@ -945,7 +945,7 @@
         <v>3.47</v>
       </c>
       <c r="D28" s="1">
-        <f>B28/C28</f>
+        <f t="shared" si="0"/>
         <v>50.144092219020173</v>
       </c>
     </row>
@@ -960,7 +960,7 @@
         <v>2.82</v>
       </c>
       <c r="D29" s="1">
-        <f>B29/C29</f>
+        <f t="shared" si="0"/>
         <v>61.702127659574472</v>
       </c>
       <c r="E29" s="1">
@@ -979,7 +979,7 @@
         <v>2.76</v>
       </c>
       <c r="D30" s="1">
-        <f>B30/C30</f>
+        <f t="shared" si="0"/>
         <v>63.04347826086957</v>
       </c>
     </row>
@@ -994,7 +994,7 @@
         <v>2.73</v>
       </c>
       <c r="D31" s="1">
-        <f>B31/C31</f>
+        <f t="shared" si="0"/>
         <v>63.736263736263737</v>
       </c>
     </row>
@@ -1009,7 +1009,7 @@
         <v>2.5</v>
       </c>
       <c r="D32" s="1">
-        <f>B32/C32</f>
+        <f t="shared" si="0"/>
         <v>69.599999999999994</v>
       </c>
       <c r="E32" s="1">
@@ -1028,7 +1028,7 @@
         <v>2.4500000000000002</v>
       </c>
       <c r="D33" s="1">
-        <f>B33/C33</f>
+        <f t="shared" si="0"/>
         <v>71.020408163265301</v>
       </c>
     </row>
@@ -1043,7 +1043,7 @@
         <v>2.36</v>
       </c>
       <c r="D34" s="1">
-        <f>B34/C34</f>
+        <f t="shared" si="0"/>
         <v>73.728813559322035</v>
       </c>
     </row>

--- a/SpeedData.xlsx
+++ b/SpeedData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mine\Automation\立项\Parking\parking\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Paking\parking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{562DF4E1-65B9-48F2-AA1A-7FB5B31B745F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8ABBF49-0047-4056-95F4-21505C6D0A2D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{EF19925B-1A47-4DCD-9511-2CE572AE3BB6}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="14220" activeTab="1" xr2:uid="{EF19925B-1A47-4DCD-9511-2CE572AE3BB6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,15 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -445,18 +454,18 @@
       <selection activeCell="G1" sqref="G1:L28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.109375" customWidth="1"/>
+    <col min="1" max="1" width="10.08203125" customWidth="1"/>
     <col min="2" max="2" width="12.33203125" customWidth="1"/>
-    <col min="3" max="3" width="10.44140625" customWidth="1"/>
-    <col min="4" max="4" width="12.44140625" customWidth="1"/>
-    <col min="8" max="8" width="12.21875" customWidth="1"/>
-    <col min="9" max="9" width="15.109375" customWidth="1"/>
-    <col min="10" max="10" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="10.4140625" customWidth="1"/>
+    <col min="4" max="4" width="12.4140625" customWidth="1"/>
+    <col min="8" max="8" width="12.25" customWidth="1"/>
+    <col min="9" max="9" width="15.08203125" customWidth="1"/>
+    <col min="10" max="10" width="13.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -473,7 +482,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>25</v>
       </c>
@@ -492,7 +501,7 @@
         <v>8.4562392761357259</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>25</v>
       </c>
@@ -507,7 +516,7 @@
         <v>8.4878048780487809</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>25</v>
       </c>
@@ -522,7 +531,7 @@
         <v>8.4425036390101891</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>50</v>
       </c>
@@ -541,7 +550,7 @@
         <v>16.709803461899472</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>50</v>
       </c>
@@ -556,7 +565,7 @@
         <v>16.618911174785101</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>50</v>
       </c>
@@ -571,7 +580,7 @@
         <v>16.682646212847555</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>75</v>
       </c>
@@ -590,7 +599,7 @@
         <v>25.501364060421135</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>75</v>
       </c>
@@ -605,7 +614,7 @@
         <v>25.625920471281297</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>75</v>
       </c>
@@ -620,7 +629,7 @@
         <v>25.327510917030569</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>100</v>
       </c>
@@ -639,7 +648,7 @@
         <v>34.099404644941323</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>100</v>
       </c>
@@ -654,7 +663,7 @@
         <v>35.437881873727086</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>100</v>
       </c>
@@ -669,7 +678,7 @@
         <v>33.590733590733592</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>110</v>
       </c>
@@ -688,7 +697,7 @@
         <v>36.916807033196406</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>110</v>
       </c>
@@ -703,7 +712,7 @@
         <v>36.786469344608875</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>110</v>
       </c>
@@ -718,7 +727,7 @@
         <v>37.021276595744681</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>120</v>
       </c>
@@ -737,7 +746,7 @@
         <v>39.526659917320508</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>120</v>
       </c>
@@ -752,7 +761,7 @@
         <v>39.635535307517088</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>120</v>
       </c>
@@ -767,7 +776,7 @@
         <v>40.277777777777779</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>125</v>
       </c>
@@ -786,7 +795,7 @@
         <v>41.567581894852985</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>125</v>
       </c>
@@ -801,7 +810,7 @@
         <v>41.232227488151658</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>125</v>
       </c>
@@ -816,7 +825,7 @@
         <v>42.335766423357661</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>130</v>
       </c>
@@ -835,7 +844,7 @@
         <v>44.251551369466625</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>130</v>
       </c>
@@ -850,7 +859,7 @@
         <v>44.050632911392405</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>130</v>
       </c>
@@ -865,7 +874,7 @@
         <v>43.391521197007485</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>150</v>
       </c>
@@ -884,7 +893,7 @@
         <v>51.143641251897726</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>150</v>
       </c>
@@ -899,7 +908,7 @@
         <v>50.877192982456144</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>150</v>
       </c>
@@ -914,7 +923,7 @@
         <v>50.144092219020173</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>175</v>
       </c>
@@ -933,7 +942,7 @@
         <v>62.827289885569257</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>175</v>
       </c>
@@ -948,7 +957,7 @@
         <v>63.04347826086957</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>175</v>
       </c>
@@ -963,7 +972,7 @@
         <v>63.736263736263737</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>200</v>
       </c>
@@ -982,7 +991,7 @@
         <v>71.449740574195786</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>200</v>
       </c>
@@ -997,7 +1006,7 @@
         <v>71.020408163265301</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>200</v>
       </c>
@@ -1026,19 +1035,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C16E9E1A-8430-42AC-9448-81A79640B4A2}">
   <dimension ref="A1:D55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="13.21875" customWidth="1"/>
-    <col min="4" max="4" width="21.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.25" customWidth="1"/>
+    <col min="4" max="4" width="21.08203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="13.6640625" customWidth="1"/>
-    <col min="6" max="6" width="10.109375" customWidth="1"/>
+    <col min="6" max="6" width="10.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -1052,155 +1061,155 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
       <c r="B2">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="C2">
-        <v>126.5</v>
+        <v>49</v>
       </c>
       <c r="D2" s="1">
         <f>AVERAGE(C2:C4)</f>
-        <v>128.66666666666666</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>50.666666666666664</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
       <c r="B3">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="C3">
-        <v>129.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
       <c r="B4">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="C4">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
       <c r="B5">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="C5">
-        <v>118</v>
+        <v>54.5</v>
       </c>
       <c r="D5" s="1">
         <f>AVERAGE(C5:C7)</f>
-        <v>117</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>53.833333333333336</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
       <c r="B6">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="C6">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>7</v>
       </c>
       <c r="B7">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="C7">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
       <c r="B8">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="C8">
-        <v>108</v>
+        <v>61</v>
       </c>
       <c r="D8" s="1">
         <f>AVERAGE(C8:C10)</f>
-        <v>108</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>61.333333333333336</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="C9">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>7</v>
       </c>
       <c r="B10">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="C10">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>7</v>
       </c>
       <c r="B11">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C11">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="D11" s="1">
         <f>AVERAGE(C11:C13)</f>
-        <v>92.333333333333329</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <v>72.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>7</v>
       </c>
       <c r="B12">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C12">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>7</v>
       </c>
       <c r="B13">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C13">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+        <v>73.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -1215,7 +1224,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>7</v>
       </c>
@@ -1226,7 +1235,7 @@
         <v>81.5</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -1237,303 +1246,303 @@
         <v>81</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>7</v>
       </c>
       <c r="B17">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C17">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="D17" s="1">
         <f>AVERAGE(C17:C19)</f>
-        <v>72.5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+        <v>92.333333333333329</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>7</v>
       </c>
       <c r="B18">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C18">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>7</v>
       </c>
       <c r="B19">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C19">
-        <v>73.5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>7</v>
       </c>
       <c r="B20">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="C20">
-        <v>61</v>
+        <v>108</v>
       </c>
       <c r="D20" s="1">
         <f>AVERAGE(C20:C22)</f>
-        <v>61.333333333333336</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>7</v>
       </c>
       <c r="B21">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="C21">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>7</v>
       </c>
       <c r="B22">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="C22">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>7</v>
       </c>
       <c r="B23">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="C23">
-        <v>54.5</v>
+        <v>118</v>
       </c>
       <c r="D23" s="1">
         <f>AVERAGE(C23:C25)</f>
-        <v>53.833333333333336</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>7</v>
       </c>
       <c r="B24">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="C24">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>7</v>
       </c>
       <c r="B25">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="C25">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>7</v>
       </c>
       <c r="B26">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="C26">
-        <v>49</v>
+        <v>126.5</v>
       </c>
       <c r="D26" s="1">
         <f>AVERAGE(C26:C28)</f>
-        <v>50.666666666666664</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+        <v>128.66666666666666</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>7</v>
       </c>
       <c r="B27">
+        <v>30</v>
+      </c>
+      <c r="C27">
+        <v>129.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28">
+        <v>30</v>
+      </c>
+      <c r="C28">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29">
         <v>80</v>
       </c>
-      <c r="C27">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>7</v>
-      </c>
-      <c r="B28">
-        <v>80</v>
-      </c>
-      <c r="C28">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>10</v>
-      </c>
-      <c r="B29">
-        <v>30</v>
-      </c>
       <c r="C29">
-        <v>119</v>
+        <v>69</v>
       </c>
       <c r="D29" s="1">
         <f>AVERAGE(C29:C31)</f>
-        <v>119</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>10</v>
       </c>
       <c r="B30">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="C30">
-        <v>118.5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>10</v>
       </c>
       <c r="B31">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="C31">
-        <v>119.5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>10</v>
       </c>
       <c r="B32">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="C32">
-        <v>117.5</v>
+        <v>69</v>
       </c>
       <c r="D32" s="1">
         <f>AVERAGE(C32:C34)</f>
-        <v>116.16666666666667</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+        <v>69.166666666666671</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>10</v>
       </c>
       <c r="B33">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="C33">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>10</v>
       </c>
       <c r="B34">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="C34">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+        <v>69.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>10</v>
       </c>
       <c r="B35">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="C35">
-        <v>104.5</v>
+        <v>68</v>
       </c>
       <c r="D35" s="1">
         <f>AVERAGE(C35:C37)</f>
-        <v>104.33333333333333</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+        <v>69.666666666666671</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>10</v>
       </c>
       <c r="B36">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="C36">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+        <v>70.5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>10</v>
       </c>
       <c r="B37">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="C37">
-        <v>104.5</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+        <v>70.5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>10</v>
       </c>
       <c r="B38">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C38">
-        <v>91</v>
+        <v>77.5</v>
       </c>
       <c r="D38" s="1">
         <f>AVERAGE(C38:C40)</f>
-        <v>91.666666666666671</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+        <v>77.5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>10</v>
       </c>
       <c r="B39">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C39">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+        <v>77.5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>10</v>
       </c>
       <c r="B40">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C40">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+        <v>77.5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>10</v>
       </c>
@@ -1547,7 +1556,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>10</v>
       </c>
@@ -1558,7 +1567,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>10</v>
       </c>
@@ -1569,157 +1578,157 @@
         <v>83</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>10</v>
       </c>
       <c r="B44">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C44">
-        <v>77.5</v>
+        <v>91</v>
       </c>
       <c r="D44" s="1">
         <f>AVERAGE(C44:C46)</f>
-        <v>77.5</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+        <v>91.666666666666671</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>10</v>
       </c>
       <c r="B45">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C45">
-        <v>77.5</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>10</v>
       </c>
       <c r="B46">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C46">
-        <v>77.5</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>10</v>
       </c>
       <c r="B47">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="C47">
-        <v>68</v>
+        <v>104.5</v>
       </c>
       <c r="D47" s="1">
         <f>AVERAGE(C47:C49)</f>
-        <v>69.666666666666671</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+        <v>104.33333333333333</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>10</v>
       </c>
       <c r="B48">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="C48">
-        <v>70.5</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>10</v>
       </c>
       <c r="B49">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="C49">
-        <v>70.5</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+        <v>104.5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>10</v>
       </c>
       <c r="B50">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="C50">
-        <v>69</v>
+        <v>117.5</v>
       </c>
       <c r="D50" s="1">
         <f>AVERAGE(C50:C52)</f>
-        <v>69.166666666666671</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+        <v>116.16666666666667</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>10</v>
       </c>
       <c r="B51">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="C51">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>10</v>
       </c>
       <c r="B52">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="C52">
-        <v>69.5</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>10</v>
       </c>
       <c r="B53">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="C53">
-        <v>69</v>
+        <v>119</v>
       </c>
       <c r="D53" s="1">
         <f>AVERAGE(C53:C55)</f>
-        <v>69</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>10</v>
       </c>
       <c r="B54">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="C54">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+        <v>118.5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>10</v>
       </c>
       <c r="B55">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="C55">
-        <v>69</v>
+        <v>119.5</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B29:D55">
-    <sortCondition ref="B29:B55"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A29:D55">
+    <sortCondition descending="1" ref="B29:B55"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
